--- a/Primero/AOB/practicas/Excel/rutina gimnasio.xlsx
+++ b/Primero/AOB/practicas/Excel/rutina gimnasio.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Clase\AOB\practicas\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AOB\practicas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA637BB-7343-47D9-818B-187B0D673188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6616A0B8-05C8-419B-8A7C-97D8D4C9216D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Lunes</t>
   </si>
@@ -71,13 +70,13 @@
     <t>Biceps</t>
   </si>
   <si>
-    <t>Sábados  1/2</t>
+    <t>Domingos  1/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +117,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -252,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,14 +581,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AAD44B-84EA-4288-B7B4-DA0F845B3E4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -644,7 +652,9 @@
         <v>11</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
